--- a/biology/Médecine/Hospice_Pachéco/Hospice_Pachéco.xlsx
+++ b/biology/Médecine/Hospice_Pachéco/Hospice_Pachéco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hospice_Pach%C3%A9co</t>
+          <t>Hospice_Pachéco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand Hospice, rebaptisé hospice Pachéco après sa fusion avec une institution fondée au XVIIIe siècle et installée entre 1843 et 1887 à l'emplacement de l'actuel square Jean Jacobs, est une œuvre de l'architecte Henri Partoes, situé à Bruxelles, en Belgique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hospice_Pach%C3%A9co</t>
+          <t>Hospice_Pachéco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit par phases entre 1824 et 1827, le Grand Hospice se compose d’un vaste quadrilatère de 138 mètres de long sur 94 de large, autour de deux cours carrées entourées de larges galeries voûtées d’arêtes et percées d’arcades cintrées servant de promenoir. En raison du sol marécageux, l’ensemble repose sur un réseau complet de caves voûtées qui ont été, un temps, louées à des brasseurs. À l’exception des parties en pierre, les façades sont enduites et peintes en blanc.
 Monument du néoclassicisme, l’ensemble se caractérise par sa sobriété, ses lignes à dominante horizontale – soulignées par les soubassements, les bandeaux continus des appuis de fenêtres, les larmiers des façades intérieures, la frise sous corniche – et la composition selon une grille déterminée par le croisement d’axes de symétrie longitudinaux et transversaux. C’est ainsi, par exemple, que les trois ailes principales sont interrompues par un pavillon central sous fronton triangulaire tandis que les quatre côtés du quadrilatère sont pourvus d’un attique en léger ressaut. L’aile centrale, qui sépare les cours, est destinée à l’intendance – réfectoire, cuisines, lingerie, pharmacie, etc. - et au logement du directeur. Les ailes extérieures se composent d’une succession symétrique de couloirs, cages d’escaliers, chambres et salles communes. À la manière d’un salon à l’italienne, une chapelle est aménagée sur deux étages au milieu de l’aile droite. La rotonde, soutenue par des colonnes et percée de niches, est coiffée d’une coupole à caissons dominée par une lanterne. Elle comprend quatre peintures – Vierge à la chaise, Foi, Espérance et Charité - de François-Joseph Navez (1787-1869).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hospice_Pach%C3%A9co</t>
+          <t>Hospice_Pachéco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Coekelberghs, Pierre Loze et al., Un ensemble néo-classique à Bruxelles : Le Grand Hospice et le quartier du Béguinage, Monographies du patrimoine de la Belgique, Ministère de la Communauté française et Institut royal du patrimoine artistique, Liège, Pierre Mardaga éditeur, 1983, 420 p.
 Thierry Demey, Un canal dans Bruxelles, bassin de vie et d’emploi – Een kanaal in Brussel, bron van leven en werk, Bruxelles, Badeaux, 2008, 160 p.
